--- a/biology/Médecine/Réflexe_photo-sternutatoire/Réflexe_photo-sternutatoire.xlsx
+++ b/biology/Médecine/Réflexe_photo-sternutatoire/Réflexe_photo-sternutatoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_photo-sternutatoire</t>
+          <t>Réflexe_photo-sternutatoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le réflexe photo-sternutatoire (ou ACHOO, sigle onomatopéique[1] et rétroacronyme de Autosomal dominant Compelling Helio-Ophthalmic Outburst), appelé aussi éternuement héliotropique[2] ou héliotrophique[3],[4],[5], est un phénomène physiologique consistant pour le sujet à éternuer lorsqu’il est exposé à une forte lumière (ou au rayonnement solaire dans certains cas). Ce réflexe concerne entre 18 % et 35 % des êtres humains[6]. C’est un trait génétique de transmission autosomique dominante.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réflexe photo-sternutatoire (ou ACHOO, sigle onomatopéique et rétroacronyme de Autosomal dominant Compelling Helio-Ophthalmic Outburst), appelé aussi éternuement héliotropique ou héliotrophique est un phénomène physiologique consistant pour le sujet à éternuer lorsqu’il est exposé à une forte lumière (ou au rayonnement solaire dans certains cas). Ce réflexe concerne entre 18 % et 35 % des êtres humains. C’est un trait génétique de transmission autosomique dominante.
 La première référence à ce phénomène date probablement d’Aristote :
 « Pourquoi éternue-t-on davantage quand on regarde vers le soleil ? N'est-ce pas parce que le soleil meut notre organe en réchauffant ? C'est le même effet que quand on se touche le nez avec des plumes. De part et d'autre, c'est la même action ; car en échauffant l'organe par le mouvement, on fait que l'humide se change plus vite en air ; et c'est la sortie de l'air qui est l'éternuement. »
 — Problèmes, XXXIII-4, traduction Jules Barthélemy-Saint-Hilaire
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9flexe_photo-sternutatoire</t>
+          <t>Réflexe_photo-sternutatoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,10 +528,12 @@
           <t>Risques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le réflexe photo-sternutatoire peut être dangereux pour les pilotes d'avions de chasse[6] et pour les conducteurs d'automobiles[7].
-Une technique proposée pour limiter ce réflexe consiste à appliquer une pression digitale transversale dans la région du philtrum[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le réflexe photo-sternutatoire peut être dangereux pour les pilotes d'avions de chasse et pour les conducteurs d'automobiles.
+Une technique proposée pour limiter ce réflexe consiste à appliquer une pression digitale transversale dans la région du philtrum.
 </t>
         </is>
       </c>
